--- a/SoftLayer-user.xlsx
+++ b/SoftLayer-user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="210">
   <si>
     <t>Support</t>
     <phoneticPr fontId="1"/>
@@ -515,18 +515,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Restrict Access to IP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Parent User</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Require Security Questions?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VPN Access</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -540,10 +532,6 @@
   </si>
   <si>
     <t>Auto / Manual</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>External Authentication</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -662,13 +650,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・None (Manage)
-・All Devices (3 Devices)
-・All Virtual Servers (1 Device)
-・All Hardware (2 Devices)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Do NOT add them to this account automatically.
 ・Always add them to this account automatically.</t>
     <phoneticPr fontId="1"/>
@@ -773,11 +754,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>○</t>
+    <t>・None (Manage)
+・- (No Permission)
+・All Devices (3 Devices)
+・All Virtual Servers (1 Device)
+・All Hardware (2 Devices)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Restrict Access to IP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Require Security Questions?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>External Authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No Permission</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Never</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPTP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL &amp; PPTP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not Generated</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1212,10 +1236,10 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1241,16 +1265,16 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -1262,31 +1286,31 @@
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="54" x14ac:dyDescent="0.15">
@@ -1300,7 +1324,7 @@
         <v>151</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>153</v>
@@ -1312,7 +1336,7 @@
         <v>153</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>156</v>
@@ -1330,13 +1354,13 @@
         <v>156</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1345,7 +1369,7 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
@@ -1394,7 +1418,7 @@
         <v>sl-vpn@example.com</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1403,7 +1427,7 @@
         <v>154</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>153</v>
@@ -1415,7 +1439,7 @@
         <v>153</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1441,7 +1465,7 @@
         <v>155</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>153</v>
@@ -1453,16 +1477,22 @@
         <v>153</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -1475,7 +1505,7 @@
         <v>158</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>153</v>
@@ -1487,16 +1517,22 @@
         <v>153</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -1504,7 +1540,7 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4" t="s">
@@ -1517,16 +1553,22 @@
         <v>153</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="N7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
@@ -1534,10 +1576,10 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>153</v>
@@ -1549,16 +1591,22 @@
         <v>153</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -1566,7 +1614,7 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
@@ -1620,10 +1668,10 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>153</v>
@@ -1635,16 +1683,22 @@
         <v>153</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="N10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -1652,10 +1706,10 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>153</v>
@@ -1667,16 +1721,22 @@
         <v>153</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -1684,31 +1744,37 @@
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -1716,10 +1782,10 @@
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>153</v>
@@ -1731,16 +1797,22 @@
         <v>153</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1748,7 +1820,7 @@
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
@@ -1761,16 +1833,22 @@
         <v>153</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="N14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -1778,10 +1856,10 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>153</v>
@@ -1793,16 +1871,22 @@
         <v>153</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="N15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -1827,16 +1911,22 @@
         <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
@@ -1859,16 +1949,22 @@
         <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -1891,16 +1987,22 @@
         <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
@@ -1923,16 +2025,22 @@
         <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
@@ -1946,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
@@ -1955,16 +2063,22 @@
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
@@ -1978,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>16</v>
@@ -1987,16 +2101,22 @@
         <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
@@ -2010,25 +2130,31 @@
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -2053,16 +2179,22 @@
         <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
@@ -2076,7 +2208,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>16</v>
@@ -2085,16 +2217,22 @@
         <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
@@ -2108,7 +2246,7 @@
         <v>25</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>16</v>
@@ -2117,16 +2255,22 @@
         <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
@@ -2140,7 +2284,7 @@
         <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>16</v>
@@ -2149,16 +2293,22 @@
         <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
@@ -2172,7 +2322,7 @@
         <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>16</v>
@@ -2181,16 +2331,22 @@
         <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
@@ -2204,7 +2360,7 @@
         <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>16</v>
@@ -2213,16 +2369,22 @@
         <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -2236,7 +2398,7 @@
         <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>16</v>
@@ -2245,16 +2407,22 @@
         <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
@@ -2268,7 +2436,7 @@
         <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>16</v>
@@ -2277,16 +2445,22 @@
         <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
@@ -2300,7 +2474,7 @@
         <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>16</v>
@@ -2309,16 +2483,22 @@
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
@@ -2332,25 +2512,31 @@
         <v>39</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="33" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
@@ -2364,25 +2550,31 @@
         <v>41</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
@@ -2396,25 +2588,31 @@
         <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
@@ -2428,25 +2626,31 @@
         <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="N35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
@@ -2471,16 +2675,22 @@
         <v>16</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
@@ -2494,7 +2704,7 @@
         <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>16</v>
@@ -2503,16 +2713,22 @@
         <v>16</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="N37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
@@ -2526,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>16</v>
@@ -2535,16 +2751,22 @@
         <v>16</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
@@ -2558,25 +2780,31 @@
         <v>54</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="40" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
@@ -2590,25 +2818,31 @@
         <v>56</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="41" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
@@ -2622,25 +2856,31 @@
         <v>58</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="42" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
@@ -2654,25 +2894,31 @@
         <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="43" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
@@ -2686,25 +2932,31 @@
         <v>62</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
@@ -2720,25 +2972,31 @@
         <v>65</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="N44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="45" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
@@ -2763,16 +3021,22 @@
         <v>16</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
@@ -2795,16 +3059,22 @@
         <v>16</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
@@ -2818,7 +3088,7 @@
         <v>72</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>16</v>
@@ -2827,16 +3097,22 @@
         <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="48" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
@@ -2850,7 +3126,7 @@
         <v>74</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>16</v>
@@ -2859,16 +3135,22 @@
         <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
@@ -2882,7 +3164,7 @@
         <v>76</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>16</v>
@@ -2891,16 +3173,22 @@
         <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="N49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
@@ -2914,7 +3202,7 @@
         <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>16</v>
@@ -2923,16 +3211,22 @@
         <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="51" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
@@ -2946,7 +3240,7 @@
         <v>80</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>16</v>
@@ -2955,16 +3249,22 @@
         <v>16</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
+      <c r="N51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="52" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
@@ -2978,25 +3278,31 @@
         <v>82</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
+      <c r="N52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="53" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
@@ -3010,25 +3316,31 @@
         <v>84</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
+      <c r="N53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
@@ -3042,25 +3354,31 @@
         <v>86</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="N54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
@@ -3074,25 +3392,31 @@
         <v>88</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
+      <c r="N55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
@@ -3106,25 +3430,31 @@
         <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
+      <c r="N56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
@@ -3138,25 +3468,31 @@
         <v>92</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="N57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
@@ -3170,25 +3506,31 @@
         <v>104</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
@@ -3202,25 +3544,31 @@
         <v>95</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="N59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
@@ -3234,25 +3582,31 @@
         <v>97</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="N60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="61" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
@@ -3266,25 +3620,31 @@
         <v>99</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="N61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
@@ -3298,26 +3658,30 @@
         <v>101</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
+      <c r="N62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="P62" s="1" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.15">
@@ -3332,25 +3696,31 @@
         <v>103</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
+      <c r="N63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="64" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
@@ -3364,25 +3734,31 @@
         <v>106</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
+      <c r="N64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="65" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
@@ -3396,25 +3772,31 @@
         <v>108</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="N65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
@@ -3428,25 +3810,31 @@
         <v>110</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
+      <c r="N66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
@@ -3460,25 +3848,31 @@
         <v>111</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
+      <c r="N67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="68" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
@@ -3492,25 +3886,31 @@
         <v>113</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
+      <c r="N68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="69" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
@@ -3524,25 +3924,31 @@
         <v>115</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
+      <c r="N69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="70" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
@@ -3567,16 +3973,22 @@
         <v>16</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+      <c r="N70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="71" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
@@ -3590,7 +4002,7 @@
         <v>120</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>16</v>
@@ -3599,16 +4011,22 @@
         <v>16</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
+      <c r="N71" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
@@ -3622,25 +4040,31 @@
         <v>122</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
+      <c r="N72" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
@@ -3654,25 +4078,31 @@
         <v>124</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
+      <c r="N73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="74" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
@@ -3686,25 +4116,31 @@
         <v>126</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
+      <c r="N74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
@@ -3718,25 +4154,31 @@
         <v>128</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="N75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
@@ -3750,25 +4192,31 @@
         <v>130</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
+      <c r="N76" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="77" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
@@ -3782,25 +4230,31 @@
         <v>132</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
+      <c r="N77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="78" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
@@ -3814,25 +4268,31 @@
         <v>134</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
+      <c r="N78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="79" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
@@ -3846,25 +4306,31 @@
         <v>136</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
+      <c r="N79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="80" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
@@ -3878,25 +4344,31 @@
         <v>138</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
+      <c r="N80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
@@ -3910,25 +4382,31 @@
         <v>140</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
+      <c r="N81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="82" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
@@ -3942,25 +4420,31 @@
         <v>142</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
+      <c r="N82" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="83" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
@@ -3974,25 +4458,31 @@
         <v>144</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
+      <c r="N83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
@@ -4006,25 +4496,31 @@
         <v>146</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="1"/>
-      <c r="P84" s="1"/>
+      <c r="N84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
@@ -4038,25 +4534,31 @@
         <v>148</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
+      <c r="N85" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="86" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
@@ -4070,25 +4572,31 @@
         <v>150</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
+      <c r="N86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/SoftLayer-user.xlsx
+++ b/SoftLayer-user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="217">
   <si>
     <t>Support</t>
     <phoneticPr fontId="1"/>
@@ -802,6 +802,67 @@
   </si>
   <si>
     <t>Not Generated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>APIを実行可能な端末のIPアドレスをコンマ区切りで指定</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理画面へログイン可能な端末のIPアドレスをコンマ区切りで指定</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Email Address.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All Devices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Always add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -825,12 +886,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -897,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -931,6 +998,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,10 +1306,10 @@
   <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1353,13 +1423,13 @@
       <c r="M2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="12" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1371,7 +1441,9 @@
       <c r="C3" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>153</v>
       </c>
@@ -1441,18 +1513,28 @@
       <c r="H4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="I4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="12" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1479,11 +1561,21 @@
       <c r="H5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="I5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="N5" s="4" t="s">
         <v>153</v>
       </c>
@@ -1519,22 +1611,32 @@
       <c r="H6" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="N6" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1542,7 +1644,9 @@
       <c r="C7" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="9" t="s">
+        <v>212</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>153</v>
       </c>
@@ -1691,13 +1795,13 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="54" x14ac:dyDescent="0.15">
@@ -1728,13 +1832,13 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="12" t="s">
         <v>207</v>
       </c>
     </row>
@@ -1766,13 +1870,13 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1822,7 +1926,9 @@
       <c r="C14" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>211</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>153</v>
       </c>
@@ -1879,13 +1985,13 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="4" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -3674,13 +3780,13 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P62" s="1" t="s">
+      <c r="N62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62" s="12" t="s">
         <v>16</v>
       </c>
     </row>

--- a/SoftLayer-user.xlsx
+++ b/SoftLayer-user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="218">
   <si>
     <t>Support</t>
     <phoneticPr fontId="1"/>
@@ -23,46 +23,24 @@
     <t>View Tickets</t>
   </si>
   <si>
-    <t>Provides this user the ability to view tickets.</t>
-  </si>
-  <si>
     <t>Search Tickets</t>
   </si>
   <si>
-    <t>Provides this user the ability to search through previous tickets.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>View Tickets by Hardware Access</t>
   </si>
   <si>
-    <t>This user may only access tickets with their assigned hardware attached to them.</t>
-  </si>
-  <si>
     <t>View Tickets by Virtual Server Access</t>
   </si>
   <si>
-    <t>This user may only access tickets with their assigned Virtual Server attached to them.</t>
-  </si>
-  <si>
     <t>Add Tickets</t>
   </si>
   <si>
-    <t>Provides this user the ability to add support tickets.</t>
-  </si>
-  <si>
     <t>Edit Tickets</t>
   </si>
   <si>
-    <t>Provides this user the ability to edit support tickets.</t>
-  </si>
-  <si>
     <t>View All Tickets</t>
   </si>
   <si>
-    <t>Provides this user the ability to view all tickets regardless of which user the ticket is assigned to.</t>
-  </si>
-  <si>
     <t>View Only</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -86,81 +64,42 @@
     <t>View Hardware Details</t>
   </si>
   <si>
-    <t>Provides this user the ability to see hardware information such as IP addresses, OS type, passwords, etc.. This also allows this user to update hardware passwords in the portal.</t>
-  </si>
-  <si>
     <t>View Virtual Server Details</t>
   </si>
   <si>
-    <t>Provides this user the ability to see Virtual Servers information such as IP addresses, OS type, passwords, etc.. This also allows this user to update Virtual Server passwords in the portal.</t>
-  </si>
-  <si>
     <t>Hardware Firewall</t>
   </si>
   <si>
-    <t>Provides this user the ability to edit and view firewall logs and settings.</t>
-  </si>
-  <si>
     <t>Manage Firewalls</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage all firewall rules.</t>
-  </si>
-  <si>
     <t>Software Firewall Manage</t>
   </si>
   <si>
-    <t>Software Firewall Manage.</t>
-  </si>
-  <si>
     <t>Manage Load Balancers</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage load balancers.</t>
-  </si>
-  <si>
     <t>Manage Port Control</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage port status and speeds for connected devices.</t>
-  </si>
-  <si>
     <t>Manage Device Monitoring</t>
   </si>
   <si>
-    <t>Provides this user the ability to view and edit monitoring information for devices.</t>
-  </si>
-  <si>
     <t>Reboot server and view IPMI system information</t>
   </si>
   <si>
-    <t>Provides this user the ability to see IPMI details regarding hardware and issue reboot commands through the portal.</t>
-  </si>
-  <si>
     <t>Upgrade Server</t>
   </si>
   <si>
-    <t>Upgrade Server.</t>
-  </si>
-  <si>
     <t>Edit Hostname/Domain</t>
   </si>
   <si>
-    <t>Provides this user the ability to edit hostname and domain name for a device.</t>
-  </si>
-  <si>
     <t>Issue OS Reloads and Initiate Rescue Kernel</t>
   </si>
   <si>
-    <t>Provides this user the ability to issue OS reloads and Rescue Kernel for devices.</t>
-  </si>
-  <si>
     <t>Upgrade Port</t>
   </si>
   <si>
-    <t>Upgrade Port.</t>
-  </si>
-  <si>
     <t>Network</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -168,51 +107,27 @@
     <t>View Bandwidth Statistics</t>
   </si>
   <si>
-    <t>View bandwidth statistics and graphs to hardware.</t>
-  </si>
-  <si>
     <t>Add IP Addresses</t>
   </si>
   <si>
-    <t>Add IP Addresses to a server.</t>
-  </si>
-  <si>
     <t>Manage E-mail Delivery Service</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage e-mail delivery service accounts.</t>
-  </si>
-  <si>
     <t>VPN Administration</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage VPN access for ALL users.</t>
-  </si>
-  <si>
     <t>Manage Network Subnet Routes</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage network subnet routes.</t>
-  </si>
-  <si>
     <t>Manage Network VLAN Spanning</t>
   </si>
   <si>
-    <t>Provides this user the ability to enable and disable private network vlan spanning.</t>
-  </si>
-  <si>
     <t>Manage IPSEC Network Tunnels</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage IPSEC network tunnels.</t>
-  </si>
-  <si>
     <t>Manage Network Gateways</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage network gateway appliances.</t>
-  </si>
-  <si>
     <t>Security</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,9 +135,6 @@
     <t>Request Compliance Report</t>
   </si>
   <si>
-    <t>Provides this user the ability to request compliance reports.</t>
-  </si>
-  <si>
     <t>Services</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -230,151 +142,78 @@
     <t>View CDN Bandwidth Statistics</t>
   </si>
   <si>
-    <t>Provides this user the ability to view content delivery network bandwidth statistics.</t>
-  </si>
-  <si>
     <t>View Licenses</t>
   </si>
   <si>
-    <t>View all licenses associated with this account.</t>
-  </si>
-  <si>
     <t>Manage DNS, Reverse DNS, WHOIS and Swip</t>
   </si>
   <si>
-    <t>Provides this user the ability to add, edit, and view DNS records managed by SoftLayer.</t>
-  </si>
-  <si>
     <t>Antivirus/Spyware</t>
   </si>
   <si>
-    <t>Provides this user the ability to view and edit antivirus / spyware logs and settings.</t>
-  </si>
-  <si>
     <t>Network IDS</t>
   </si>
   <si>
-    <t>Coming Soon!</t>
-  </si>
-  <si>
     <t>Host IDS</t>
   </si>
   <si>
-    <t>Provides this user the ability to view Host IDS logs.</t>
-  </si>
-  <si>
     <t>Vulnerability Scanning</t>
   </si>
   <si>
-    <t>Provides this user the ability to request and view Vulnerability Scans.</t>
-  </si>
-  <si>
     <t>Manage CDN Account</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage content delivery network account.</t>
-  </si>
-  <si>
     <t>Manage CDN File Transfers</t>
   </si>
   <si>
-    <t>Provides this user the ability to manage content delivery network file transfers.</t>
-  </si>
-  <si>
     <t>View cPanel</t>
   </si>
   <si>
-    <t>View login information for cPanel.</t>
-  </si>
-  <si>
     <t>View Plesk</t>
   </si>
   <si>
-    <t>View login information for Plesk.</t>
-  </si>
-  <si>
     <t>View Helm</t>
   </si>
   <si>
-    <t>View login information for Helm.</t>
-  </si>
-  <si>
     <t>View Urchin</t>
   </si>
   <si>
-    <t>View login information for Urchin.</t>
-  </si>
-  <si>
     <t>Manage Message Queue</t>
   </si>
   <si>
     <t>Manage Provisioning Scripts</t>
   </si>
   <si>
-    <t>Manage Provisioning Scripts.</t>
-  </si>
-  <si>
     <t>View QuantaStor</t>
   </si>
   <si>
-    <t>View login information for QuantaStor.</t>
-  </si>
-  <si>
     <t>Manage Public Images</t>
   </si>
   <si>
-    <t>Provides this user the ability to publish Public Image Templates.</t>
-  </si>
-  <si>
     <t>SSL VPN Allowed</t>
   </si>
   <si>
-    <t>SSL VPN Allowed.</t>
-  </si>
-  <si>
     <t>Manage Security</t>
   </si>
   <si>
-    <t>Manage Security.</t>
-  </si>
-  <si>
-    <t>Manage Message Queue service.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>View Certificates (SSL)</t>
   </si>
   <si>
-    <t>Allows the user to view certificates (includes the private key).</t>
-  </si>
-  <si>
     <t>Manage Certificates (SSL)</t>
   </si>
   <si>
-    <t>Allows the user to add, remove, and update certificates (includes the private key).</t>
-  </si>
-  <si>
     <t>Manage SSH Keys</t>
   </si>
   <si>
-    <t>Allows the user to add, remove, and update SSH keys.</t>
-  </si>
-  <si>
     <t>Upgrade Services</t>
   </si>
   <si>
     <t>Lockbox Manage</t>
   </si>
   <si>
-    <t>Provides this user the ability to view ALL lockbox details and edit lockbox passwords.</t>
-  </si>
-  <si>
     <t>Manage Storage</t>
   </si>
   <si>
-    <t>Provides this user the ability to view Storage details and edit Storage passwords.</t>
-  </si>
-  <si>
     <t>Account</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,107 +221,55 @@
     <t>View Account Summary</t>
   </si>
   <si>
-    <t>Provides the ability for this user to view the account summary page including invoices and payments.</t>
-  </si>
-  <si>
     <t>Manage Notification Subscribers</t>
   </si>
   <si>
-    <t>Provides this user the ability to create and manage notification subscribers for usage warnings and overages.</t>
-  </si>
-  <si>
     <t>Forum Access</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Forum Access.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Add/Upgrade Cloud Instances</t>
   </si>
   <si>
-    <t>Upgrade / Add Cloud Computing Instance.</t>
-  </si>
-  <si>
     <t>Update Payment Details</t>
   </si>
   <si>
-    <t>Provides the ability for this user to update the recurring monthly payment information.</t>
-  </si>
-  <si>
     <t>Cancel Server</t>
   </si>
   <si>
-    <t>Ability to cancel any server(s) on this account.</t>
-  </si>
-  <si>
     <t>Cancel Services</t>
   </si>
   <si>
-    <t>Ability to cancel any services on this account.</t>
-  </si>
-  <si>
     <t>Datacenter Access</t>
   </si>
   <si>
-    <t>Provides this user the permission to physically enter a datacenter.</t>
-  </si>
-  <si>
     <t>View Event Log</t>
   </si>
   <si>
-    <t>Provides the ability for this user to view the account-wide event log history.</t>
-  </si>
-  <si>
     <t>Add New User</t>
   </si>
   <si>
-    <t>Provides the ability for the user to add new user and assign permissions.</t>
-  </si>
-  <si>
     <t>Reset Password</t>
   </si>
   <si>
-    <t>Provides the ability for the user to reset the portal login password.</t>
-  </si>
-  <si>
     <t>Add Storage</t>
   </si>
   <si>
-    <t>Upgrade / Add Storage.</t>
-  </si>
-  <si>
     <t>Edit Company Profile</t>
   </si>
   <si>
-    <t>Provides the ability for this user to modify the account / company profile associated with this account.</t>
-  </si>
-  <si>
     <t>Submit One-time Payments</t>
   </si>
   <si>
-    <t>Provides the ability for this user to submit one time payments for this account.</t>
-  </si>
-  <si>
     <t>Add/Upgrade Services</t>
   </si>
   <si>
-    <t>Upgrade / Add Services.</t>
-  </si>
-  <si>
     <t>Add Server</t>
   </si>
   <si>
-    <t>Provides the ability to add new servers to the account.</t>
-  </si>
-  <si>
     <t>Datacenter Room Access</t>
   </si>
   <si>
-    <t>Provides this user the permission to physically enter a customer's colo cage.</t>
-  </si>
-  <si>
     <t>Status</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -528,10 +315,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Subnet Access</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Auto / Manual</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -621,10 +404,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Yes / No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No(変更可)</t>
     <rPh sb="2" eb="4">
       <t>ヘンコウ</t>
@@ -643,173 +422,540 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・Active
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>権限等</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-parent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-operator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-exec-api</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-view-api</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-ssl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-pptp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-vpn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VPN Only</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Restrict Access to IP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Require Security Questions?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>External Authentication</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No Permission</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Never</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPTP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL &amp; PPTP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auto</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Not Generated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All Devices</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Always add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・None
+・Symantec Identity Protection
+  [$3.00 per month]
+・Phone-based authentication
+  [$10.00 per month]
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Active
 ・Disabled
 ・Inactive
-・VPN Only</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Do NOT add them to this account automatically.
-・Always add them to this account automatically.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Never
+・VPN Only
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・None (Manage)
+・- (No Permission)
+・All Devices (3 Devices)
+・All Virtual Servers (1 Device)
+・All Hardware (2 Devices)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Do NOT add them to this account automatically.
+・Always add them to this account automatically.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">管理画面へログイン可能な端末のIPアドレスをコンマ区切りで指定
+</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Never
 ・30 Days
 ・45 Days
 ・60 Days
 ・90 Days
-・120 Days</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・None
+・120 Days
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Email Address.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes / No
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・None
 ・SSL
 ・PPTP
-・SSL &amp; PPTP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・Generate (Not generated)
-・View (Generated)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・None
-・Symantec Identity Protection
-  [$3.00 per month]
-・Phone-based authentication
-  [$10.00 per month]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分類</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>権限等</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>説明</t>
-    <rPh sb="0" eb="2">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項番</t>
-    <rPh sb="0" eb="1">
-      <t>コウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sl-admin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sl-parent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sl-operator</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sl-exec-api</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sl-view-api</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sl-ssl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sl-pptp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sl-vpn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VPN Only</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・None (Manage)
-・- (No Permission)
-・All Devices (3 Devices)
-・All Virtual Servers (1 Device)
-・All Hardware (2 Devices)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Restrict Access to IP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Require Security Questions?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>External Authentication</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No Permission</t>
-  </si>
-  <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Never</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPTP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SSL &amp; PPTP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Auto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Not Generated</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>APIを実行可能な端末のIPアドレスをコンマ区切りで指定</t>
+・SSL &amp; PPTP
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto / Manual
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Generate (Not generated)
+・View (Generated)
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to cancel any services on this account.
+サービスを解約できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for this user to submit one time payments for this account.
+一時金支払いを実施できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view tickets.
+チケットを閲覧できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to search through previous tickets.
+既存チケットを検索できる。
+</t>
+    <rPh sb="67" eb="69">
+      <t>キソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This user may only access tickets with their assigned hardware attached to them.
+割り当てられたハードウェアに紐づくチケットを閲覧できる。
+</t>
+    <rPh sb="81" eb="82">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">This user may only access tickets with their assigned Virtual Server attached to them.
+割り当てられた仮想サーバに紐づくチケットを閲覧できる。
+</t>
+    <rPh sb="87" eb="88">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to add support tickets.
+サポート・チケットを発行できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to edit support tickets.
+サポート・チケットを編集できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view all tickets regardless of which user the ticket is assigned to.
+どのユーザに割り当てられているチケットであるかとは無関係に、すべてのチケットを閲覧できる。
+</t>
+    <rPh sb="109" eb="110">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="128" eb="131">
+      <t>ムカンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to see hardware information such as IP addresses, OS type, passwords, etc.. This also allows this user to update hardware passwords in the portal.
+IPアドレス、OS種別、パスワードなどのハードウェア情報を閲覧できる。また、ポータル内でハードウェア・パスワードを更新できる。
+</t>
+    <rPh sb="204" eb="206">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to see Virtual Servers information such as IP addresses, OS type, passwords, etc.. This also allows this user to update Virtual Server passwords in the portal.
+IPアドレス、OS種別、パスワードなどの仮想サーバ情報を閲覧できる。また、ポータル内の仮想サーバ・パスワードを更新することができる。
+</t>
+    <rPh sb="211" eb="213">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to edit and view firewall logs and settings.
+ファイアウォール・ログおよび設定の閲覧、設定変更ができる。
+</t>
+    <rPh sb="90" eb="92">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage all firewall rules.
+全てのファイアウォール・ルールを管理できる。
+</t>
+    <rPh sb="61" eb="62">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Firewall Manage.
+ソフトウェア・ファイアウォールを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage load balancers.
+ロードバランサを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage port status and speeds for connected devices.
+デバイスにつながっているポートの状態、速度を管理できる。
+</t>
+    <rPh sb="103" eb="105">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view and edit monitoring information for devices.
+デバイスの監視情報を閲覧、設定変更できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to see IPMI details regarding hardware and issue reboot commands through the portal.
+ポータルにてハードウェアに関するIPMI情報を閲覧し、再起動を実行できる。
+</t>
+    <rPh sb="129" eb="130">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="143" eb="146">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Server.
+サーバをアップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to edit hostname and domain name for a device.
+デバイスのホスト名とドメイン名を編集できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to issue OS reloads and Rescue Kernel for devices.
+デバイスに対しOS Reload(再初期化)と、Rescue Kernelを実行できる。
+</t>
+    <rPh sb="87" eb="88">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Port.
+ポートをアップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View bandwidth statistics and graphs to hardware.
+ハードウェアの帯域統計とグラフを閲覧できる。
+</t>
+    <rPh sb="57" eb="59">
+      <t>タイイキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Add IP Addresses to a server.
+サーバへIPアドレスを追加できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage e-mail delivery service accounts.
+e-mail配信サービス・アカウントを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage VPN access for ALL users.
+全ユーザーのVPNアクセスを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage network subnet routes.
+ネットワーク・サブネット経路を管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to enable and disable private network vlan spanning.
+プライベート・ネットワークVLANスパニングを有効化・無効化できる。
+</t>
+    <rPh sb="107" eb="110">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage IPSEC network tunnels.
+IPsecネットワーク・トンネルを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage network gateway appliances.
+ゲートウェイ・アプライアンスを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to request compliance reports.
+コンプライアンスレポートを要求できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view content delivery network bandwidth statistics.
+CDN帯域統計を閲覧できる。
+</t>
+    <rPh sb="89" eb="91">
+      <t>タイイキ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>トウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View all licenses associated with this account.
+アカウントに紐づくすべてのライセンスを閲覧できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to add, edit, and view DNS records managed by SoftLayer.
+SoftLayerで管理しているDNSレコードを追加、変更、閲覧できる。
+</t>
+    <rPh sb="98" eb="100">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view and edit antivirus / spyware logs and settings.
+アンチウィルス、スパイウェアのログ、設定を閲覧、変更できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">APIを実行可能な端末のIPアドレスをコンマ区切りで指定
+</t>
     <rPh sb="4" eb="6">
       <t>ジッコウ</t>
     </rPh>
@@ -828,41 +974,323 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理画面へログイン可能な端末のIPアドレスをコンマ区切りで指定</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Email Address.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>All Devices</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Always add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>None</t>
+    <t xml:space="preserve">Coming Soon!
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view Host IDS logs.
+ホストIDSログを閲覧できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to request and view Vulnerability Scans.
+脆弱性スキャン実施、結果閲覧できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage content delivery network account.
+CDNアカウントを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage content delivery network file transfers.
+CDNファイル転送を管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for cPanel.
+cPanelへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for Plesk.
+Pleskへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for Helm.
+Helmへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="43" eb="45">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for Urchin.
+Urchinへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Message Queue service.
+メッセージキュー・サービスを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Provisioning Scripts.
+プロビジョニング・スクリプトを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for QuantaStor.
+QuantaStorへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="55" eb="57">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to publish Public Image Templates.
+パブリック・イメージ・テンプレートを作成できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SSL VPN Allowed.
+SSL VPNを利用できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Security.
+セキュリティを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows the user to view certificates (includes the private key).
+(秘密鍵を含む)認証情報を閲覧できる。
+</t>
+    <rPh sb="66" eb="68">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows the user to add, remove, and update certificates (includes the private key).
+(秘密鍵を含む)認証情報を追加、削除、更新できる。
+</t>
+    <rPh sb="85" eb="87">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows the user to add, remove, and update SSH keys.
+SSH鍵を追加、削除、更新できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Services.
+サービスをアップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view ALL lockbox details and edit lockbox passwords.
+全ロックボックスの詳細情報閲覧、パスワード編集ができる。
+</t>
+    <rPh sb="100" eb="102">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view Storage details and edit Storage passwords.
+ストレージ詳細情報閲覧、パスワード編集ができる。
+</t>
+    <rPh sb="92" eb="94">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for this user to view the account summary page including invoices and payments.
+請求と決済を含む口座概要ページを閲覧できる。
+</t>
+    <rPh sb="107" eb="108">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to create and manage notification subscribers for usage warnings and overages.
+使用警告と利用上限超過警告通知を受けるユーザー作成、管理ができる。
+</t>
+    <rPh sb="110" eb="112">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Forum Access.
+Forumへアクセスできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade / Add Cloud Computing Instance.
+仮想サーバを作成、アップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for this user to update the recurring monthly payment information.
+毎月の決済情報を更新できる。
+</t>
+    <rPh sb="88" eb="90">
+      <t>マイツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to cancel any server(s) on this account.
+サーバを解約できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the permission to physically enter a datacenter.
+物理的にデータセンターへ入館できる。
+</t>
+    <rPh sb="68" eb="71">
+      <t>ブツリテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for this user to view the account-wide event log history.
+アカウントにまたがるイベントログを閲覧できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for the user to add new user and assign permissions.
+新ユーザを作成し、権限付与できる。
+</t>
+    <rPh sb="74" eb="75">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade / Add Storage.
+ストレージ追加、アップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for the user to reset the portal login password.
+ユーザーの管理ポータル・ログイン・パスワードをリセットできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for this user to modify the account / company profile associated with this account.
+アカウント情報、会社情報を変更できる。
+</t>
+    <rPh sb="110" eb="112">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade / Add Services.
+サービス追加、アップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability to add new servers to the account.
+アカウントにサーバ追加できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the permission to physically enter a customer's colo cage.
+物理的に、顧客のコロケージへ入ることができる。
+</t>
+    <rPh sb="78" eb="81">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>コキャク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1317,7 +1745,7 @@
     <col min="1" max="1" width="5.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.125" style="2" bestFit="1" customWidth="1"/>
@@ -1335,123 +1763,123 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>213</v>
+        <v>95</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H3" s="6" t="str">
         <f>H1 &amp; "@example.com"</f>
@@ -1490,150 +1918,150 @@
         <v>sl-vpn@example.com</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="6" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>214</v>
+        <v>132</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="6" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>215</v>
+        <v>133</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>175</v>
+        <v>88</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="27" x14ac:dyDescent="0.15">
@@ -1642,22 +2070,22 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1665,37 +2093,37 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="81" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1703,13 +2131,13 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -1718,20 +2146,20 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>H1</f>
@@ -1766,28 +2194,28 @@
         <v>sl-parent</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>175</v>
+        <v>121</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1795,37 +2223,37 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1833,37 +2261,37 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="12" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>163</v>
+        <v>92</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1871,37 +2299,37 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="12" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="6" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1909,37 +2337,37 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>211</v>
+        <v>102</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1947,37 +2375,37 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1985,16 +2413,16 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="4" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2005,19 +2433,19 @@
         <v>1</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2025,37 +2453,37 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2063,37 +2491,37 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2101,37 +2529,37 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2139,37 +2567,37 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2177,37 +2605,37 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2215,37 +2643,37 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2253,39 +2681,39 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="81" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2293,37 +2721,37 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -2331,37 +2759,37 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -2369,37 +2797,37 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -2407,37 +2835,37 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -2445,37 +2873,37 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -2483,37 +2911,37 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="6" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -2521,37 +2949,37 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="6" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -2559,37 +2987,37 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -2597,37 +3025,37 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -2635,37 +3063,37 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2673,37 +3101,37 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -2711,37 +3139,37 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2749,39 +3177,39 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2789,37 +3217,37 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2827,37 +3255,37 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2865,37 +3293,37 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="6" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2903,37 +3331,37 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2941,37 +3369,37 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="6" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2979,37 +3407,37 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3017,37 +3445,37 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3055,39 +3483,39 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3095,39 +3523,39 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3135,37 +3563,37 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -3173,37 +3601,37 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="6" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -3211,37 +3639,37 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="6" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -3249,37 +3677,37 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="6" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -3287,37 +3715,37 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="6" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -3325,37 +3753,37 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="6" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -3363,37 +3791,37 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="6" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -3401,37 +3829,37 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="6" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -3439,37 +3867,37 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="6" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -3477,37 +3905,37 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>54</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="6" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -3515,37 +3943,37 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>55</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="6" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -3553,37 +3981,37 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>56</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="6" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -3591,37 +4019,37 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="6" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -3629,37 +4057,37 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="6" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -3667,37 +4095,37 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="6" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -3705,37 +4133,37 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="6" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -3743,37 +4171,37 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="6" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -3781,37 +4209,37 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>62</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="6" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>103</v>
+        <v>196</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -3819,37 +4247,37 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="6" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -3857,37 +4285,37 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="6" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -3895,37 +4323,37 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="6" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -3933,37 +4361,37 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="6" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -3971,37 +4399,37 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="6" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -4009,37 +4437,37 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="6" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -4047,39 +4475,39 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -4087,37 +4515,37 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>70</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="6" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -4125,37 +4553,37 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>71</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="6" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -4163,37 +4591,37 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>72</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="6" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -4201,37 +4629,37 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="6" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -4239,37 +4667,37 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="6" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -4277,37 +4705,37 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="6" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -4315,37 +4743,37 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="6" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -4353,37 +4781,37 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>77</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="6" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -4391,37 +4819,37 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>78</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="6" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -4429,37 +4857,37 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>79</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="6" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>138</v>
+        <v>213</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -4467,37 +4895,37 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>80</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="6" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -4505,37 +4933,37 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="6" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -4543,37 +4971,37 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="6" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -4581,37 +5009,37 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="6" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -4619,37 +5047,37 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="6" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -4657,37 +5085,37 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>85</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="6" t="s">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -4695,13 +5123,13 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/SoftLayer-user.xlsx
+++ b/SoftLayer-user.xlsx
@@ -672,8 +672,600 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">Provides this user the ability to add support tickets.
+サポート・チケットを発行できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to edit support tickets.
+サポート・チケットを編集できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view all tickets regardless of which user the ticket is assigned to.
+どのユーザに割り当てられているチケットであるかとは無関係に、すべてのチケットを閲覧できる。
+</t>
+    <rPh sb="109" eb="110">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="128" eb="131">
+      <t>ムカンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to see hardware information such as IP addresses, OS type, passwords, etc.. This also allows this user to update hardware passwords in the portal.
+IPアドレス、OS種別、パスワードなどのハードウェア情報を閲覧できる。また、ポータル内でハードウェア・パスワードを更新できる。
+</t>
+    <rPh sb="204" eb="206">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to see Virtual Servers information such as IP addresses, OS type, passwords, etc.. This also allows this user to update Virtual Server passwords in the portal.
+IPアドレス、OS種別、パスワードなどの仮想サーバ情報を閲覧できる。また、ポータル内の仮想サーバ・パスワードを更新することができる。
+</t>
+    <rPh sb="211" eb="213">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to edit and view firewall logs and settings.
+ファイアウォール・ログおよび設定の閲覧、設定変更ができる。
+</t>
+    <rPh sb="90" eb="92">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage all firewall rules.
+全てのファイアウォール・ルールを管理できる。
+</t>
+    <rPh sb="61" eb="62">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Firewall Manage.
+ソフトウェア・ファイアウォールを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage load balancers.
+ロードバランサを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage port status and speeds for connected devices.
+デバイスにつながっているポートの状態、速度を管理できる。
+</t>
+    <rPh sb="103" eb="105">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view and edit monitoring information for devices.
+デバイスの監視情報を閲覧、設定変更できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to see IPMI details regarding hardware and issue reboot commands through the portal.
+ポータルにてハードウェアに関するIPMI情報を閲覧し、再起動を実行できる。
+</t>
+    <rPh sb="129" eb="130">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="143" eb="146">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Server.
+サーバをアップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to edit hostname and domain name for a device.
+デバイスのホスト名とドメイン名を編集できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to issue OS reloads and Rescue Kernel for devices.
+デバイスに対しOS Reload(再初期化)と、Rescue Kernelを実行できる。
+</t>
+    <rPh sb="87" eb="88">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Port.
+ポートをアップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View bandwidth statistics and graphs to hardware.
+ハードウェアの帯域統計とグラフを閲覧できる。
+</t>
+    <rPh sb="57" eb="59">
+      <t>タイイキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Add IP Addresses to a server.
+サーバへIPアドレスを追加できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage e-mail delivery service accounts.
+e-mail配信サービス・アカウントを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage VPN access for ALL users.
+全ユーザーのVPNアクセスを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage network subnet routes.
+ネットワーク・サブネット経路を管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to enable and disable private network vlan spanning.
+プライベート・ネットワークVLANスパニングを有効化・無効化できる。
+</t>
+    <rPh sb="107" eb="110">
+      <t>ユウコウカ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage IPSEC network tunnels.
+IPsecネットワーク・トンネルを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage network gateway appliances.
+ゲートウェイ・アプライアンスを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to request compliance reports.
+コンプライアンスレポートを要求できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view content delivery network bandwidth statistics.
+CDN帯域統計を閲覧できる。
+</t>
+    <rPh sb="89" eb="91">
+      <t>タイイキ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>トウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View all licenses associated with this account.
+アカウントに紐づくすべてのライセンスを閲覧できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to add, edit, and view DNS records managed by SoftLayer.
+SoftLayerで管理しているDNSレコードを追加、変更、閲覧できる。
+</t>
+    <rPh sb="98" eb="100">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view and edit antivirus / spyware logs and settings.
+アンチウィルス、スパイウェアのログ、設定を閲覧、変更できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">APIを実行可能な端末のIPアドレスをコンマ区切りで指定
+</t>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クギ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Coming Soon!
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view Host IDS logs.
+ホストIDSログを閲覧できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to request and view Vulnerability Scans.
+脆弱性スキャン実施、結果閲覧できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage content delivery network account.
+CDNアカウントを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to manage content delivery network file transfers.
+CDNファイル転送を管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for cPanel.
+cPanelへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for Plesk.
+Pleskへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="45" eb="47">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for Helm.
+Helmへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="43" eb="45">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for Urchin.
+Urchinへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="47" eb="49">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Message Queue service.
+メッセージキュー・サービスを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Provisioning Scripts.
+プロビジョニング・スクリプトを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">View login information for QuantaStor.
+QuantaStorへのログイン情報を閲覧できる。
+</t>
+    <rPh sb="55" eb="57">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to publish Public Image Templates.
+パブリック・イメージ・テンプレートを作成できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SSL VPN Allowed.
+SSL VPNを利用できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Security.
+セキュリティを管理できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows the user to view certificates (includes the private key).
+(秘密鍵を含む)認証情報を閲覧できる。
+</t>
+    <rPh sb="66" eb="68">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows the user to add, remove, and update certificates (includes the private key).
+(秘密鍵を含む)認証情報を追加、削除、更新できる。
+</t>
+    <rPh sb="85" eb="87">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Allows the user to add, remove, and update SSH keys.
+SSH鍵を追加、削除、更新できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade Services.
+サービスをアップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view ALL lockbox details and edit lockbox passwords.
+全ロックボックスの詳細情報閲覧、パスワード編集ができる。
+</t>
+    <rPh sb="100" eb="102">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to view Storage details and edit Storage passwords.
+ストレージ詳細情報閲覧、パスワード編集ができる。
+</t>
+    <rPh sb="92" eb="94">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for this user to view the account summary page including invoices and payments.
+請求と決済を含む口座概要ページを閲覧できる。
+</t>
+    <rPh sb="107" eb="108">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the ability to create and manage notification subscribers for usage warnings and overages.
+使用警告と利用上限超過警告通知を受けるユーザー作成、管理ができる。
+</t>
+    <rPh sb="110" eb="112">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ケイコク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Forum Access.
+Forumへアクセスできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade / Add Cloud Computing Instance.
+仮想サーバを作成、アップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for this user to update the recurring monthly payment information.
+毎月の決済情報を更新できる。
+</t>
+    <rPh sb="88" eb="90">
+      <t>マイツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ability to cancel any server(s) on this account.
+サーバを解約できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the permission to physically enter a datacenter.
+物理的にデータセンターへ入館できる。
+</t>
+    <rPh sb="68" eb="71">
+      <t>ブツリテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for this user to view the account-wide event log history.
+アカウントにまたがるイベントログを閲覧できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for the user to add new user and assign permissions.
+新ユーザを作成し、権限付与できる。
+</t>
+    <rPh sb="74" eb="75">
+      <t>シン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade / Add Storage.
+ストレージ追加、アップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for the user to reset the portal login password.
+ユーザーの管理ポータル・ログイン・パスワードをリセットできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability for this user to modify the account / company profile associated with this account.
+アカウント情報、会社情報を変更できる。
+</t>
+    <rPh sb="110" eb="112">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Upgrade / Add Services.
+サービス追加、アップグレードできる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides the ability to add new servers to the account.
+アカウントにサーバ追加できる。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides this user the permission to physically enter a customer's colo cage.
+物理的に、顧客のコロケージへ入ることができる。
+</t>
+    <rPh sb="78" eb="81">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t xml:space="preserve">This user may only access tickets with their assigned hardware attached to them.
-割り当てられたハードウェアに紐づくチケットを閲覧できる。
+割り当てられたハードウェアに紐づくチケットをアクセスできる。
 </t>
     <rPh sb="81" eb="82">
       <t>ワ</t>
@@ -688,7 +1280,7 @@
   </si>
   <si>
     <t xml:space="preserve">This user may only access tickets with their assigned Virtual Server attached to them.
-割り当てられた仮想サーバに紐づくチケットを閲覧できる。
+割り当てられた仮想サーバに紐づくチケットをアクセスできる。
 </t>
     <rPh sb="87" eb="88">
       <t>ワ</t>
@@ -698,598 +1290,6 @@
     </rPh>
     <rPh sb="100" eb="101">
       <t>ヒモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to add support tickets.
-サポート・チケットを発行できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to edit support tickets.
-サポート・チケットを編集できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to view all tickets regardless of which user the ticket is assigned to.
-どのユーザに割り当てられているチケットであるかとは無関係に、すべてのチケットを閲覧できる。
-</t>
-    <rPh sb="109" eb="110">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="128" eb="131">
-      <t>ムカンケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to see hardware information such as IP addresses, OS type, passwords, etc.. This also allows this user to update hardware passwords in the portal.
-IPアドレス、OS種別、パスワードなどのハードウェア情報を閲覧できる。また、ポータル内でハードウェア・パスワードを更新できる。
-</t>
-    <rPh sb="204" eb="206">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to see Virtual Servers information such as IP addresses, OS type, passwords, etc.. This also allows this user to update Virtual Server passwords in the portal.
-IPアドレス、OS種別、パスワードなどの仮想サーバ情報を閲覧できる。また、ポータル内の仮想サーバ・パスワードを更新することができる。
-</t>
-    <rPh sb="211" eb="213">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to edit and view firewall logs and settings.
-ファイアウォール・ログおよび設定の閲覧、設定変更ができる。
-</t>
-    <rPh sb="90" eb="92">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage all firewall rules.
-全てのファイアウォール・ルールを管理できる。
-</t>
-    <rPh sb="61" eb="62">
-      <t>スベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Firewall Manage.
-ソフトウェア・ファイアウォールを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage load balancers.
-ロードバランサを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage port status and speeds for connected devices.
-デバイスにつながっているポートの状態、速度を管理できる。
-</t>
-    <rPh sb="103" eb="105">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to view and edit monitoring information for devices.
-デバイスの監視情報を閲覧、設定変更できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to see IPMI details regarding hardware and issue reboot commands through the portal.
-ポータルにてハードウェアに関するIPMI情報を閲覧し、再起動を実行できる。
-</t>
-    <rPh sb="129" eb="130">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="143" eb="146">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade Server.
-サーバをアップグレードできる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to edit hostname and domain name for a device.
-デバイスのホスト名とドメイン名を編集できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to issue OS reloads and Rescue Kernel for devices.
-デバイスに対しOS Reload(再初期化)と、Rescue Kernelを実行できる。
-</t>
-    <rPh sb="87" eb="88">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="100" eb="103">
-      <t>ショキカ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade Port.
-ポートをアップグレードできる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">View bandwidth statistics and graphs to hardware.
-ハードウェアの帯域統計とグラフを閲覧できる。
-</t>
-    <rPh sb="57" eb="59">
-      <t>タイイキ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>トウケイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Add IP Addresses to a server.
-サーバへIPアドレスを追加できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage e-mail delivery service accounts.
-e-mail配信サービス・アカウントを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage VPN access for ALL users.
-全ユーザーのVPNアクセスを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage network subnet routes.
-ネットワーク・サブネット経路を管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to enable and disable private network vlan spanning.
-プライベート・ネットワークVLANスパニングを有効化・無効化できる。
-</t>
-    <rPh sb="107" eb="110">
-      <t>ユウコウカ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ムコウ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage IPSEC network tunnels.
-IPsecネットワーク・トンネルを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage network gateway appliances.
-ゲートウェイ・アプライアンスを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to request compliance reports.
-コンプライアンスレポートを要求できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to view content delivery network bandwidth statistics.
-CDN帯域統計を閲覧できる。
-</t>
-    <rPh sb="89" eb="91">
-      <t>タイイキ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>トウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">View all licenses associated with this account.
-アカウントに紐づくすべてのライセンスを閲覧できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to add, edit, and view DNS records managed by SoftLayer.
-SoftLayerで管理しているDNSレコードを追加、変更、閲覧できる。
-</t>
-    <rPh sb="98" eb="100">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to view and edit antivirus / spyware logs and settings.
-アンチウィルス、スパイウェアのログ、設定を閲覧、変更できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">APIを実行可能な端末のIPアドレスをコンマ区切りで指定
-</t>
-    <rPh sb="4" eb="6">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>クギ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Coming Soon!
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to view Host IDS logs.
-ホストIDSログを閲覧できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to request and view Vulnerability Scans.
-脆弱性スキャン実施、結果閲覧できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage content delivery network account.
-CDNアカウントを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to manage content delivery network file transfers.
-CDNファイル転送を管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">View login information for cPanel.
-cPanelへのログイン情報を閲覧できる。
-</t>
-    <rPh sb="47" eb="49">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">View login information for Plesk.
-Pleskへのログイン情報を閲覧できる。
-</t>
-    <rPh sb="45" eb="47">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">View login information for Helm.
-Helmへのログイン情報を閲覧できる。
-</t>
-    <rPh sb="43" eb="45">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">View login information for Urchin.
-Urchinへのログイン情報を閲覧できる。
-</t>
-    <rPh sb="47" eb="49">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Message Queue service.
-メッセージキュー・サービスを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Provisioning Scripts.
-プロビジョニング・スクリプトを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">View login information for QuantaStor.
-QuantaStorへのログイン情報を閲覧できる。
-</t>
-    <rPh sb="55" eb="57">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to publish Public Image Templates.
-パブリック・イメージ・テンプレートを作成できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">SSL VPN Allowed.
-SSL VPNを利用できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Security.
-セキュリティを管理できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows the user to view certificates (includes the private key).
-(秘密鍵を含む)認証情報を閲覧できる。
-</t>
-    <rPh sb="66" eb="68">
-      <t>ヒミツ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows the user to add, remove, and update certificates (includes the private key).
-(秘密鍵を含む)認証情報を追加、削除、更新できる。
-</t>
-    <rPh sb="85" eb="87">
-      <t>ヒミツ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>カギ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows the user to add, remove, and update SSH keys.
-SSH鍵を追加、削除、更新できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade Services.
-サービスをアップグレードできる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to view ALL lockbox details and edit lockbox passwords.
-全ロックボックスの詳細情報閲覧、パスワード編集ができる。
-</t>
-    <rPh sb="100" eb="102">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to view Storage details and edit Storage passwords.
-ストレージ詳細情報閲覧、パスワード編集ができる。
-</t>
-    <rPh sb="92" eb="94">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides the ability for this user to view the account summary page including invoices and payments.
-請求と決済を含む口座概要ページを閲覧できる。
-</t>
-    <rPh sb="107" eb="108">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>コウザ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the ability to create and manage notification subscribers for usage warnings and overages.
-使用警告と利用上限超過警告通知を受けるユーザー作成、管理ができる。
-</t>
-    <rPh sb="110" eb="112">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ケイコク</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="126" eb="127">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Forum Access.
-Forumへアクセスできる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade / Add Cloud Computing Instance.
-仮想サーバを作成、アップグレードできる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides the ability for this user to update the recurring monthly payment information.
-毎月の決済情報を更新できる。
-</t>
-    <rPh sb="88" eb="90">
-      <t>マイツキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ability to cancel any server(s) on this account.
-サーバを解約できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the permission to physically enter a datacenter.
-物理的にデータセンターへ入館できる。
-</t>
-    <rPh sb="68" eb="71">
-      <t>ブツリテキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides the ability for this user to view the account-wide event log history.
-アカウントにまたがるイベントログを閲覧できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides the ability for the user to add new user and assign permissions.
-新ユーザを作成し、権限付与できる。
-</t>
-    <rPh sb="74" eb="75">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>フヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade / Add Storage.
-ストレージ追加、アップグレードできる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides the ability for the user to reset the portal login password.
-ユーザーの管理ポータル・ログイン・パスワードをリセットできる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides the ability for this user to modify the account / company profile associated with this account.
-アカウント情報、会社情報を変更できる。
-</t>
-    <rPh sb="110" eb="112">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Upgrade / Add Services.
-サービス追加、アップグレードできる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides the ability to add new servers to the account.
-アカウントにサーバ追加できる。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Provides this user the permission to physically enter a customer's colo cage.
-物理的に、顧客のコロケージへ入ることができる。
-</t>
-    <rPh sb="78" eb="81">
-      <t>ブツリテキ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>コキャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2355,7 +2355,7 @@
         <v>102</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>83</v>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
@@ -2547,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
@@ -2585,7 +2585,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>103</v>
@@ -2623,7 +2623,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>103</v>
@@ -2661,7 +2661,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>103</v>
@@ -2701,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -2739,7 +2739,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>103</v>
@@ -2777,7 +2777,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>103</v>
@@ -2815,7 +2815,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>103</v>
@@ -2853,7 +2853,7 @@
         <v>17</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>103</v>
@@ -2891,7 +2891,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>103</v>
@@ -2929,7 +2929,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>103</v>
@@ -2967,7 +2967,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>103</v>
@@ -3005,7 +3005,7 @@
         <v>21</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>103</v>
@@ -3043,7 +3043,7 @@
         <v>22</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>103</v>
@@ -3081,7 +3081,7 @@
         <v>23</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>103</v>
@@ -3119,7 +3119,7 @@
         <v>24</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>103</v>
@@ -3157,7 +3157,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>103</v>
@@ -3197,7 +3197,7 @@
         <v>27</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>9</v>
@@ -3235,7 +3235,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>103</v>
@@ -3273,7 +3273,7 @@
         <v>29</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>103</v>
@@ -3311,7 +3311,7 @@
         <v>30</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>103</v>
@@ -3349,7 +3349,7 @@
         <v>31</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>103</v>
@@ -3387,7 +3387,7 @@
         <v>32</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>103</v>
@@ -3425,7 +3425,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>103</v>
@@ -3463,7 +3463,7 @@
         <v>34</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>103</v>
@@ -3503,7 +3503,7 @@
         <v>36</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>103</v>
@@ -3543,7 +3543,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>9</v>
@@ -3581,7 +3581,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>9</v>
@@ -3619,7 +3619,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>103</v>
@@ -3657,7 +3657,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>103</v>
@@ -3695,7 +3695,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>103</v>
@@ -3733,7 +3733,7 @@
         <v>43</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>103</v>
@@ -3771,7 +3771,7 @@
         <v>44</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>103</v>
@@ -3809,7 +3809,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>103</v>
@@ -3847,7 +3847,7 @@
         <v>46</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>103</v>
@@ -3885,7 +3885,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>103</v>
@@ -3923,7 +3923,7 @@
         <v>48</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>103</v>
@@ -3961,7 +3961,7 @@
         <v>49</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>103</v>
@@ -3999,7 +3999,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>103</v>
@@ -4037,7 +4037,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>103</v>
@@ -4075,7 +4075,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>103</v>
@@ -4113,7 +4113,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>103</v>
@@ -4151,7 +4151,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>103</v>
@@ -4189,7 +4189,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>103</v>
@@ -4227,7 +4227,7 @@
         <v>56</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>103</v>
@@ -4265,7 +4265,7 @@
         <v>57</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>103</v>
@@ -4303,7 +4303,7 @@
         <v>58</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>103</v>
@@ -4341,7 +4341,7 @@
         <v>59</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>103</v>
@@ -4379,7 +4379,7 @@
         <v>60</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>103</v>
@@ -4417,7 +4417,7 @@
         <v>61</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>103</v>
@@ -4455,7 +4455,7 @@
         <v>62</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>103</v>
@@ -4495,7 +4495,7 @@
         <v>64</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
@@ -4533,7 +4533,7 @@
         <v>65</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>103</v>
@@ -4571,7 +4571,7 @@
         <v>66</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>103</v>
@@ -4609,7 +4609,7 @@
         <v>67</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>103</v>
@@ -4647,7 +4647,7 @@
         <v>68</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>103</v>
@@ -4685,7 +4685,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>103</v>
@@ -4761,7 +4761,7 @@
         <v>71</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>103</v>
@@ -4799,7 +4799,7 @@
         <v>72</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>103</v>
@@ -4837,7 +4837,7 @@
         <v>73</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>103</v>
@@ -4875,7 +4875,7 @@
         <v>74</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>103</v>
@@ -4913,7 +4913,7 @@
         <v>75</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>103</v>
@@ -4951,7 +4951,7 @@
         <v>76</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>103</v>
@@ -5027,7 +5027,7 @@
         <v>78</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>103</v>
@@ -5065,7 +5065,7 @@
         <v>79</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>103</v>
@@ -5103,7 +5103,7 @@
         <v>80</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>103</v>

--- a/SoftLayer-user.xlsx
+++ b/SoftLayer-user.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="223">
   <si>
     <t>Support</t>
     <phoneticPr fontId="1"/>
@@ -1291,6 +1291,26 @@
     <rPh sb="100" eb="101">
       <t>ヒモ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-storage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sl-storage@example.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Generated</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Backup Servers')</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1731,13 +1751,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1755,13 +1775,14 @@
     <col min="11" max="11" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="14" max="14" width="23" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
@@ -1802,16 +1823,19 @@
         <v>115</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1851,8 +1875,8 @@
       <c r="M2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>119</v>
+      <c r="N2" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>119</v>
@@ -1860,8 +1884,11 @@
       <c r="P2" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="Q2" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1886,7 +1913,7 @@
         <v>SL******@example.com</v>
       </c>
       <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:P3" si="0">I1 &amp; "@example.com"</f>
+        <f t="shared" ref="I3:Q3" si="0">I1 &amp; "@example.com"</f>
         <v>sl-parent@example.com</v>
       </c>
       <c r="J3" s="6" t="str">
@@ -1905,20 +1932,23 @@
         <f t="shared" si="0"/>
         <v>sl-view-api@example.com</v>
       </c>
-      <c r="N3" s="6" t="str">
+      <c r="N3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="O3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>sl-ssl@example.com</v>
       </c>
-      <c r="O3" s="6" t="str">
+      <c r="P3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>sl-pptp@example.com</v>
       </c>
-      <c r="P3" s="6" t="str">
+      <c r="Q3" s="6" t="str">
         <f t="shared" si="0"/>
         <v>sl-vpn@example.com</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="81" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1965,8 +1995,11 @@
       <c r="P4" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q4" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2013,8 +2046,11 @@
       <c r="P5" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="Q5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2063,8 +2099,11 @@
       <c r="P6" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="Q6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2092,17 +2131,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="N7" s="12"/>
       <c r="O7" s="4" t="s">
         <v>83</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="Q7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2139,8 +2179,11 @@
       <c r="P8" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="Q8" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2170,7 +2213,7 @@
         <v>sl-parent</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f t="shared" ref="K9:P9" si="1">$I$1</f>
+        <f t="shared" ref="K9:Q9" si="1">$I$1</f>
         <v>sl-parent</v>
       </c>
       <c r="L9" s="1" t="str">
@@ -2193,8 +2236,12 @@
         <f t="shared" si="1"/>
         <v>sl-parent</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>sl-parent</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2231,8 +2278,11 @@
       <c r="P10" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="Q10" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2260,17 +2310,20 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2298,8 +2351,8 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="12" t="s">
-        <v>129</v>
+      <c r="N12" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>129</v>
@@ -2307,8 +2360,11 @@
       <c r="P12" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q12" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2337,7 +2393,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>130</v>
@@ -2345,8 +2401,11 @@
       <c r="P13" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="Q13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2374,8 +2433,8 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="4" t="s">
-        <v>83</v>
+      <c r="N14" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>83</v>
@@ -2383,8 +2442,11 @@
       <c r="P14" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="81" x14ac:dyDescent="0.15">
+      <c r="Q14" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2421,8 +2483,11 @@
       <c r="P15" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q15" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2461,8 +2526,11 @@
       <c r="P16" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2499,8 +2567,11 @@
       <c r="P17" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q17" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2537,8 +2608,11 @@
       <c r="P18" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2575,8 +2649,11 @@
       <c r="P19" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q19" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2613,8 +2690,11 @@
       <c r="P20" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2651,8 +2731,11 @@
       <c r="P21" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="Q21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2689,8 +2772,11 @@
       <c r="P22" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" ht="81" x14ac:dyDescent="0.15">
+      <c r="Q22" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="P23" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" ht="81" x14ac:dyDescent="0.15">
+      <c r="Q23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2767,8 +2856,11 @@
       <c r="P24" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q24" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2805,8 +2897,11 @@
       <c r="P25" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q25" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2843,8 +2938,11 @@
       <c r="P26" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q26" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2881,8 +2979,11 @@
       <c r="P27" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q27" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2919,8 +3020,11 @@
       <c r="P28" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q28" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2957,8 +3061,11 @@
       <c r="P29" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q29" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2995,8 +3102,11 @@
       <c r="P30" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q30" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3033,8 +3143,11 @@
       <c r="P31" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q31" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3071,8 +3184,11 @@
       <c r="P32" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q32" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3109,8 +3225,11 @@
       <c r="P33" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q33" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3147,8 +3266,11 @@
       <c r="P34" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q34" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3185,8 +3307,11 @@
       <c r="P35" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3225,8 +3350,11 @@
       <c r="P36" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3263,8 +3391,11 @@
       <c r="P37" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q37" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3301,8 +3432,11 @@
       <c r="P38" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3339,8 +3473,11 @@
       <c r="P39" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q39" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3377,8 +3514,11 @@
       <c r="P40" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q40" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3415,8 +3555,11 @@
       <c r="P41" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q41" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3453,8 +3596,11 @@
       <c r="P42" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q42" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3491,8 +3637,11 @@
       <c r="P43" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q43" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3531,8 +3680,11 @@
       <c r="P44" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q44" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3571,8 +3723,11 @@
       <c r="P45" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q45" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3609,8 +3764,11 @@
       <c r="P46" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q46" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3647,8 +3805,11 @@
       <c r="P47" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q47" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3685,8 +3846,11 @@
       <c r="P48" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="27" x14ac:dyDescent="0.15">
+      <c r="Q48" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3723,8 +3887,11 @@
       <c r="P49" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q49" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3761,8 +3928,11 @@
       <c r="P50" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q50" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3799,8 +3969,11 @@
       <c r="P51" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3837,8 +4010,11 @@
       <c r="P52" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3875,8 +4051,11 @@
       <c r="P53" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q53" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3913,8 +4092,11 @@
       <c r="P54" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q54" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3951,8 +4133,11 @@
       <c r="P55" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q55" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3989,8 +4174,11 @@
       <c r="P56" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -4027,8 +4215,11 @@
       <c r="P57" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q57" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -4065,8 +4256,11 @@
       <c r="P58" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q58" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -4103,8 +4297,11 @@
       <c r="P59" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -4141,8 +4338,11 @@
       <c r="P60" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q60" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -4179,8 +4379,11 @@
       <c r="P61" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q61" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4208,8 +4411,8 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="12" t="s">
-        <v>9</v>
+      <c r="N62" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="O62" s="12" t="s">
         <v>9</v>
@@ -4217,8 +4420,11 @@
       <c r="P62" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q62" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -4255,8 +4461,11 @@
       <c r="P63" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q63" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -4293,8 +4502,11 @@
       <c r="P64" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q64" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -4331,8 +4543,11 @@
       <c r="P65" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -4369,8 +4584,11 @@
       <c r="P66" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q66" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -4407,8 +4625,11 @@
       <c r="P67" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q67" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="P68" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q68" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4474,8 +4698,8 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="1" t="s">
-        <v>103</v>
+      <c r="N69" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>103</v>
@@ -4483,8 +4707,11 @@
       <c r="P69" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q69" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4523,8 +4750,11 @@
       <c r="P70" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q70" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4561,8 +4791,11 @@
       <c r="P71" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q71" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4599,8 +4832,11 @@
       <c r="P72" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q72" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4637,8 +4873,11 @@
       <c r="P73" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q73" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4675,8 +4914,11 @@
       <c r="P74" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q74" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4713,8 +4955,11 @@
       <c r="P75" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q75" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4751,8 +4996,11 @@
       <c r="P76" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q76" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4789,8 +5037,11 @@
       <c r="P77" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q77" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4827,8 +5078,11 @@
       <c r="P78" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q78" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4865,8 +5119,11 @@
       <c r="P79" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q79" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4903,8 +5160,11 @@
       <c r="P80" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q80" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4941,8 +5201,11 @@
       <c r="P81" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q81" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4979,8 +5242,11 @@
       <c r="P82" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" ht="54" x14ac:dyDescent="0.15">
+      <c r="Q82" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="54" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -5017,8 +5283,11 @@
       <c r="P83" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q83" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -5055,8 +5324,11 @@
       <c r="P84" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q84" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -5093,8 +5365,11 @@
       <c r="P85" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="Q85" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -5131,6 +5406,9 @@
       <c r="P86" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="Q86" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
